--- a/outputs/test-p__Firmicutes.xlsx
+++ b/outputs/test-p__Firmicutes.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/MLDSP-desktop/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AF8BDE-1545-0D4D-A8B8-1F7F1BCACD24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="linear-svm-score" sheetId="2" r:id="rId3"/>
-    <sheet name="quadratic-svm-score" sheetId="3" r:id="rId5"/>
+    <sheet name="linear-svm-score" sheetId="2" r:id="rId1"/>
+    <sheet name="p__quadratic-svm-score" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="72">
   <si>
     <t>Row</t>
   </si>
@@ -222,16 +239,30 @@
   </si>
   <si>
     <t>prediction</t>
+  </si>
+  <si>
+    <t>c__Bacilli</t>
+  </si>
+  <si>
+    <t>c__Alicylobacillia</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,44 +281,365 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="true"/>
-    <col min="2" max="2" width="18.85546875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="20.140625" customWidth="true"/>
-    <col min="5" max="5" width="10.28515625" customWidth="true"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -299,739 +651,871 @@
       <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.2162105719111465e-06</v>
+        <v>7.2162105719111465E-6</v>
       </c>
       <c r="C2">
         <v>0.99999278378940593</v>
       </c>
       <c r="D2">
-        <v>2.2207286153262566e-14</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2.2207286153262566E-14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.1846330001710969e-06</v>
+        <v>2.1846330001710969E-6</v>
       </c>
       <c r="C3">
         <v>0.99999781536697763</v>
       </c>
       <c r="D3">
-        <v>2.2205682934871166e-14</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2.2205682934871166E-14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.0576936139767603e-05</v>
+        <v>6.0576936139767603E-5</v>
       </c>
       <c r="C4">
         <v>0.99993942306383798</v>
       </c>
       <c r="D4">
-        <v>2.2219209345814756e-14</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2.2219209345814756E-14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.51474645550913e-05</v>
+        <v>6.51474645550913E-5</v>
       </c>
       <c r="C5">
         <v>0.99993485253542269</v>
       </c>
       <c r="D5">
-        <v>2.2223451719502089e-14</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2.2223451719502089E-14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0012708562516662166</v>
+        <v>1.2708562516662166E-3</v>
       </c>
       <c r="C6">
         <v>0.99872914374751964</v>
       </c>
       <c r="D6">
-        <v>8.1411355956500909e-13</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>8.1411355956500909E-13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.2157400376193628e-09</v>
+        <v>1.2157400376193628E-9</v>
       </c>
       <c r="C7">
         <v>0.99999999878423773</v>
       </c>
       <c r="D7">
-        <v>2.2204462940179725e-14</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2.2204462940179725E-14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.4532331712680059e-10</v>
+        <v>5.4532331712680059E-10</v>
       </c>
       <c r="C8">
         <v>0.99999999945465445</v>
       </c>
       <c r="D8">
-        <v>2.2204461813982989e-14</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2.2204461813982989E-14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.9079739346910757e-08</v>
+        <v>1.9079739346910757E-8</v>
       </c>
       <c r="C9">
         <v>0.99999998092023845</v>
       </c>
       <c r="D9">
-        <v>2.2204482832361892e-14</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2.2204482832361892E-14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.3382543701975868e-10</v>
+        <v>8.3382543701975868E-10</v>
       </c>
       <c r="C10">
         <v>0.99999999916615234</v>
       </c>
       <c r="D10">
-        <v>2.2204462361345091e-14</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2.2204462361345091E-14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.7792713250511129e-09</v>
+        <v>1.7792713250511129E-9</v>
       </c>
       <c r="C11">
         <v>0.99999999822070651</v>
       </c>
       <c r="D11">
-        <v>2.2204464614269734e-14</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2.2204464614269734E-14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.6459473683177207e-05</v>
+        <v>3.6459473683177207E-5</v>
       </c>
       <c r="C12">
         <v>0.99996354052629466</v>
       </c>
       <c r="D12">
-        <v>2.2212616705718607e-14</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2.2212616705718607E-14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.7383302466015943e-07</v>
+        <v>6.7383302466015943E-7</v>
       </c>
       <c r="C13">
         <v>0.99999932616695308</v>
       </c>
       <c r="D13">
-        <v>2.2204928113390036e-14</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2.2204928113390036E-14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.8898045596057357e-07</v>
+        <v>3.8898045596057357E-7</v>
       </c>
       <c r="C14">
         <v>0.99999961101952184</v>
       </c>
       <c r="D14">
-        <v>2.22049147381786e-14</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2.22049147381786E-14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.8070714746542161e-07</v>
+        <v>1.8070714746542161E-7</v>
       </c>
       <c r="C15">
         <v>0.99999981929283033</v>
       </c>
       <c r="D15">
-        <v>2.2204604084362322e-14</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2.2204604084362322E-14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.1309114483009365e-09</v>
+        <v>1.1309114483009365E-9</v>
       </c>
       <c r="C16">
         <v>0.99999999886906643</v>
       </c>
       <c r="D16">
-        <v>2.2204465145007058e-14</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2.2204465145007058E-14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.7125667159655257e-07</v>
+        <v>8.7125667159655257E-7</v>
       </c>
       <c r="C17">
         <v>0.99999912874330621</v>
       </c>
       <c r="D17">
-        <v>2.2204917153950318e-14</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2.2204917153950318E-14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.9846022571469114e-05</v>
+        <v>1.9846022571469114E-5</v>
       </c>
       <c r="C18">
         <v>0.99998015397740636</v>
       </c>
       <c r="D18">
-        <v>2.2210937049581485e-14</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2.2210937049581485E-14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.0139371769590023e-06</v>
+        <v>2.0139371769590023E-6</v>
       </c>
       <c r="C19">
         <v>0.99999798606280077</v>
       </c>
       <c r="D19">
-        <v>2.2205544994667324e-14</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2.2205544994667324E-14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.405796069428865e-06</v>
+        <v>2.405796069428865E-6</v>
       </c>
       <c r="C20">
         <v>0.99999759420390844</v>
       </c>
       <c r="D20">
-        <v>2.2205709151873051e-14</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2.2205709151873051E-14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.0030102403520243411</v>
+        <v>3.0102403520243411E-3</v>
       </c>
       <c r="C21">
         <v>0.9969897596329601</v>
       </c>
       <c r="D21">
-        <v>1.5015626535637505e-11</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1.5015626535637505E-11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.3001614869614755e-05</v>
+        <v>1.3001614869614755E-5</v>
       </c>
       <c r="C22">
         <v>0.99998699838510818</v>
       </c>
       <c r="D22">
-        <v>2.2209107078710327e-14</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2.2209107078710327E-14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.0726628091533628e-05</v>
+        <v>1.0726628091533628E-5</v>
       </c>
       <c r="C23">
         <v>0.99998927337188626</v>
       </c>
       <c r="D23">
-        <v>2.2208826377716577e-14</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2.2208826377716577E-14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.2077672962597254e-08</v>
+        <v>1.2077672962597254E-8</v>
       </c>
       <c r="C24">
         <v>0.99999998792230482</v>
       </c>
       <c r="D24">
-        <v>2.2204485597185798e-14</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2.2204485597185798E-14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.6020292434038927e-06</v>
+        <v>3.6020292434038927E-6</v>
       </c>
       <c r="C25">
         <v>0.99999639797073447</v>
       </c>
       <c r="D25">
-        <v>2.2206215034582779e-14</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2.2206215034582779E-14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>3.7015387115631497e-08</v>
+        <v>3.7015387115631497E-8</v>
       </c>
       <c r="C26">
         <v>0.99999996298442828</v>
       </c>
       <c r="D26">
-        <v>1.8464511599180157e-13</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1.8464511599180157E-13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5.9478933039930227e-06</v>
+        <v>5.9478933039930227E-6</v>
       </c>
       <c r="C27">
         <v>0.9999940521066738</v>
       </c>
       <c r="D27">
-        <v>2.220940564500555e-14</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2.220940564500555E-14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.00078378493265101766</v>
+        <v>7.8378493265101766E-4</v>
       </c>
       <c r="C28">
         <v>0.99921621506731728</v>
       </c>
       <c r="D28">
-        <v>3.1722719057680688e-14</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>3.1722719057680688E-14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5.2575314226442174e-07</v>
+        <v>5.2575314226442174E-7</v>
       </c>
       <c r="C29">
         <v>0.99999947424683544</v>
       </c>
       <c r="D29">
-        <v>2.2204801177824378e-14</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2.2204801177824378E-14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2.0456021190985482e-06</v>
+        <v>2.0456021190985482E-6</v>
       </c>
       <c r="C30">
         <v>0.99999795439785866</v>
       </c>
       <c r="D30">
-        <v>2.2205367683185242e-14</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2.2205367683185242E-14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>4.8675246928939256e-08</v>
+        <v>4.8675246928939256E-8</v>
       </c>
       <c r="C31">
         <v>0.99999995132473096</v>
       </c>
       <c r="D31">
-        <v>2.2204509916780638e-14</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2.2204509916780638E-14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.00064011526434053613</v>
+        <v>6.4011526434053613E-4</v>
       </c>
       <c r="C32">
         <v>0.99935987465177933</v>
       </c>
       <c r="D32">
-        <v>1.0083880149571057e-08</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1.0083880149571057E-8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.7285451311632963e-07</v>
+        <v>1.7285451311632963E-7</v>
       </c>
       <c r="C33">
         <v>0.99999982714546465</v>
       </c>
       <c r="D33">
-        <v>2.2204601259631445e-14</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2.2204601259631445E-14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.1794524430068603e-09</v>
+        <v>1.1794524430068603E-9</v>
       </c>
       <c r="C34">
         <v>0.99999999882052537</v>
       </c>
       <c r="D34">
-        <v>2.2204463041916535e-14</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2.2204463041916535E-14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.7726470983971682e-07</v>
+        <v>2.7726470983971682E-7</v>
       </c>
       <c r="C35">
         <v>0.99999972273526794</v>
       </c>
       <c r="D35">
-        <v>2.2204740943827658e-14</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2.2204740943827658E-14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8.1877232715009788e-10</v>
+        <v>8.1877232715009788E-10</v>
       </c>
       <c r="C36">
         <v>0.99999999918120552</v>
       </c>
       <c r="D36">
-        <v>2.2204462601219718e-14</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2.2204462601219718E-14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>4.8111074119225926e-07</v>
+        <v>4.8111074119225926E-7</v>
       </c>
       <c r="C37">
         <v>0.99999951888923655</v>
       </c>
       <c r="D37">
-        <v>2.2205108521019563e-14</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2.2205108521019563E-14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3.0656471380367657e-07</v>
+        <v>3.0656471380367657E-7</v>
       </c>
       <c r="C38">
         <v>0.99999969343526396</v>
       </c>
       <c r="D38">
-        <v>2.220468288742625e-14</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2.220468288742625E-14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>5.8360827177631018e-08</v>
+        <v>5.8360827177631018E-8</v>
       </c>
       <c r="C39">
         <v>0.99999994163915062</v>
       </c>
       <c r="D39">
-        <v>2.2204524675163676e-14</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2.2204524675163676E-14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.0025835234705921849</v>
+        <v>2.5835234705921849E-3</v>
       </c>
       <c r="C40">
         <v>0.99741647652937937</v>
       </c>
       <c r="D40">
-        <v>2.8379386037371536e-14</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2.8379386037371536E-14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.6224032255618465e-09</v>
+        <v>2.6224032255618465E-9</v>
       </c>
       <c r="C41">
         <v>0.99999999737757461</v>
       </c>
       <c r="D41">
-        <v>2.2204473031237815e-14</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2.2204473031237815E-14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2.5715958745954444e-06</v>
+        <v>2.5715958745954444E-6</v>
       </c>
       <c r="C42">
         <v>0.99999742840410322</v>
       </c>
       <c r="D42">
-        <v>2.2206751323381612e-14</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2.2206751323381612E-14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6.2065516470315203e-06</v>
+        <v>6.2065516470315203E-6</v>
       </c>
       <c r="C43">
         <v>0.999993793448264</v>
       </c>
       <c r="D43">
-        <v>8.8886461759722428e-14</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>8.8886461759722428E-14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.00058456005296681662</v>
+        <v>5.8456005296681662E-4</v>
       </c>
       <c r="C44">
         <v>0.99887793689393956</v>
       </c>
       <c r="D44">
-        <v>0.00053750305309350902</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>5.3750305309350902E-4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1042,98 +1526,116 @@
         <v>0.50381464709192036</v>
       </c>
       <c r="D45">
-        <v>2.2204433701822054e-14</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2.2204433701822054E-14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.9052687313542163e-07</v>
+        <v>1.9052687313542163E-7</v>
       </c>
       <c r="C46">
         <v>0.99999980947310463</v>
       </c>
       <c r="D46">
-        <v>2.2204658185350872e-14</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2.2204658185350872E-14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3.8715824707033667e-05</v>
+        <v>3.8715824707033667E-5</v>
       </c>
       <c r="C47">
         <v>0.99996127663273615</v>
       </c>
       <c r="D47">
-        <v>7.5425568074775269e-09</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>7.5425568074775269E-9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6.6041608193499971e-06</v>
+        <v>6.6041608193499971E-6</v>
       </c>
       <c r="C48">
         <v>0.99999339583915847</v>
       </c>
       <c r="D48">
-        <v>2.2207430890641881e-14</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>2.2207430890641881E-14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>6.4833822774238613e-05</v>
+        <v>6.4833822774238613E-5</v>
       </c>
       <c r="C49">
         <v>0.99993516617717459</v>
       </c>
       <c r="D49">
-        <v>5.1192634521092881e-14</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>5.1192634521092881E-14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6.1955794328753556e-05</v>
+        <v>6.1955794328753556E-5</v>
       </c>
       <c r="C50">
         <v>0.9999380442056458</v>
       </c>
       <c r="D50">
-        <v>2.5429831680922962e-14</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>2.5429831680922962E-14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1144,370 +1646,439 @@
         <v>0.49206292487336994</v>
       </c>
       <c r="D51">
-        <v>2.2204402140460205e-14</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>2.2204402140460205E-14</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.0012926801320888213</v>
+        <v>1.2926801320888213E-3</v>
       </c>
       <c r="C52">
         <v>0.99870731986676908</v>
       </c>
       <c r="D52">
-        <v>1.1421676330589434e-12</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1.1421676330589434E-12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.0021100185056886806</v>
+        <v>2.1100185056886806E-3</v>
       </c>
       <c r="C53">
         <v>0.99788998149428454</v>
       </c>
       <c r="D53">
-        <v>2.6794370980134378e-14</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2.6794370980134378E-14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5.2757634575901298e-07</v>
+        <v>5.2757634575901298E-7</v>
       </c>
       <c r="C54">
         <v>0.99999947242363207</v>
       </c>
       <c r="D54">
-        <v>2.2205136823608542e-14</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>2.2205136823608542E-14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3.6347593488093742e-05</v>
+        <v>3.6347593488093742E-5</v>
       </c>
       <c r="C55">
         <v>0.99996365240648977</v>
       </c>
       <c r="D55">
-        <v>2.2213949951984431e-14</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>2.2213949951984431E-14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.4179971614921949e-06</v>
+        <v>2.4179971614921949E-6</v>
       </c>
       <c r="C56">
         <v>0.9999975820028163</v>
       </c>
       <c r="D56">
-        <v>2.2206646313743177e-14</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2.2206646313743177E-14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.6488498596523567e-06</v>
+        <v>1.6488498596523567E-6</v>
       </c>
       <c r="C57">
         <v>0.99999835115011815</v>
       </c>
       <c r="D57">
-        <v>2.2206247487364071e-14</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2.2206247487364071E-14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3.1709499815132598e-05</v>
+        <v>3.1709499815132598E-5</v>
       </c>
       <c r="C58">
         <v>0.99996829050016267</v>
       </c>
       <c r="D58">
-        <v>2.2219897731870711e-14</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2.2219897731870711E-14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7.5075475150135017e-07</v>
+        <v>7.5075475150135017E-7</v>
       </c>
       <c r="C59">
         <v>0.99999924924522632</v>
       </c>
       <c r="D59">
-        <v>2.2204893895147917e-14</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2.2204893895147917E-14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7.7095666156620168e-06</v>
+        <v>7.7095666156620168E-6</v>
       </c>
       <c r="C60">
         <v>0.99999229043336213</v>
       </c>
       <c r="D60">
-        <v>2.2206860681895066e-14</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2.2206860681895066E-14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3.1743735008614101e-09</v>
+        <v>3.1743735008614101E-9</v>
       </c>
       <c r="C61">
         <v>0.99999999682560425</v>
       </c>
       <c r="D61">
-        <v>2.2204466299838072e-14</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2.2204466299838072E-14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.592679605589871e-06</v>
+        <v>1.592679605589871E-6</v>
       </c>
       <c r="C62">
         <v>0.99999840732037226</v>
       </c>
       <c r="D62">
-        <v>2.2206223276616086e-14</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2.2206223276616086E-14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.0338467895021763e-07</v>
+        <v>1.0338467895021763E-7</v>
       </c>
       <c r="C63">
         <v>0.99999989661529887</v>
       </c>
       <c r="D63">
-        <v>2.2204569457524113e-14</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2.2204569457524113E-14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>8.2671114292832189e-06</v>
+        <v>8.2671114292832189E-6</v>
       </c>
       <c r="C64">
         <v>0.99999173288854848</v>
       </c>
       <c r="D64">
-        <v>2.2208346641055144e-14</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>2.2208346641055144E-14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.00045677862357348741</v>
+        <v>4.5677862357348741E-4</v>
       </c>
       <c r="C65">
         <v>0.99954322137640039</v>
       </c>
       <c r="D65">
-        <v>2.609643991010245e-14</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
+        <v>2.609643991010245E-14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="true"/>
-    <col min="2" max="2" width="18.85546875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="20.140625" customWidth="true"/>
-    <col min="5" max="5" width="10.28515625" customWidth="true"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.4554306619902719e-05</v>
+        <v>6.4554306619902719E-5</v>
       </c>
       <c r="C2">
         <v>0.99954744443354837</v>
       </c>
       <c r="D2">
-        <v>0.00038800125983174869</v>
-      </c>
-      <c r="E2">
+        <v>3.8800125983174869E-4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>7.5823530927661287e-05</v>
+        <v>7.5823530927661287E-5</v>
       </c>
       <c r="C3">
         <v>0.99953685239846046</v>
       </c>
       <c r="D3">
-        <v>0.00038732407061182735</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+        <v>3.8732407061182735E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.00032314137896961712</v>
+        <v>3.2314137896961712E-4</v>
       </c>
       <c r="C4">
         <v>0.99965221265889737</v>
       </c>
       <c r="D4">
-        <v>2.4645962132985681e-05</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+        <v>2.4645962132985681E-5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.5240913887829729e-05</v>
+        <v>7.5240913887829729E-5</v>
       </c>
       <c r="C5">
         <v>0.99992004650365718</v>
       </c>
       <c r="D5">
-        <v>4.7125824549405671e-06</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+        <v>4.7125824549405671E-6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00048093019368570736</v>
+        <v>4.8093019368570736E-4</v>
       </c>
       <c r="C6">
         <v>0.99949104282928369</v>
       </c>
       <c r="D6">
-        <v>2.8026977030612077e-05</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+        <v>2.8026977030612077E-5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1519,12 +2090,15 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1536,29 +2110,35 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.1923062370115811e-10</v>
+        <v>1.1923062370115811E-10</v>
       </c>
       <c r="C9">
         <v>0.99999999988073462</v>
       </c>
       <c r="D9">
-        <v>3.4793883846140251e-14</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+        <v>3.4793883846140251E-14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1570,913 +2150,1075 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.062027343816122e-08</v>
+        <v>2.062027343816122E-8</v>
       </c>
       <c r="C11">
         <v>0.99999997658460826</v>
       </c>
       <c r="D11">
-        <v>2.7951182753516771e-09</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+        <v>2.7951182753516771E-9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.015582016381165027</v>
+        <v>1.5582016381165027E-2</v>
       </c>
       <c r="C12">
         <v>0.98441797518784435</v>
       </c>
       <c r="D12">
-        <v>8.4309907413893864e-09</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+        <v>8.4309907413893864E-9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.7484559122037801e-05</v>
+        <v>3.7484559122037801E-5</v>
       </c>
       <c r="C13">
         <v>0.99975824687264492</v>
       </c>
       <c r="D13">
-        <v>0.00020426856823310243</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+        <v>2.0426856823310243E-4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.00099911857770413996</v>
+        <v>9.9911857770413996E-4</v>
       </c>
       <c r="C14">
         <v>0.99900088141111754</v>
       </c>
       <c r="D14">
-        <v>1.1178395714163344e-11</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+        <v>1.1178395714163344E-11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.9129511540483128e-07</v>
+        <v>1.9129511540483128E-7</v>
       </c>
       <c r="C15">
         <v>0.99999980870486238</v>
       </c>
       <c r="D15">
-        <v>2.22044591642229e-14</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+        <v>2.22044591642229E-14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.7551924044774035e-08</v>
+        <v>1.7551924044774035E-8</v>
       </c>
       <c r="C16">
         <v>0.99999998244789035</v>
       </c>
       <c r="D16">
-        <v>1.8561952060680921e-13</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+        <v>1.8561952060680921E-13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6.7358506454367634e-12</v>
+        <v>6.7358506454367634E-12</v>
       </c>
       <c r="C17">
         <v>0.99999999999324196</v>
       </c>
       <c r="D17">
-        <v>2.2204460493210143e-14</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+        <v>2.2204460493210143E-14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.3606570023777973e-05</v>
+        <v>2.3606570023777973E-5</v>
       </c>
       <c r="C18">
         <v>0.99995364631003625</v>
       </c>
       <c r="D18">
-        <v>2.2747119939954142e-05</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+        <v>2.2747119939954142E-5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.8564544306750228e-05</v>
+        <v>6.8564544306750228E-5</v>
       </c>
       <c r="C19">
         <v>0.99967431913169014</v>
       </c>
       <c r="D19">
-        <v>0.00025711632400306596</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+        <v>2.5711632400306596E-4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.2138394226952536e-05</v>
+        <v>6.2138394226952536E-5</v>
       </c>
       <c r="C20">
         <v>0.99964718383760731</v>
       </c>
       <c r="D20">
-        <v>0.00029067776816577815</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+        <v>2.9067776816577815E-4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.8370965067916126e-05</v>
+        <v>2.8370965067916126E-5</v>
       </c>
       <c r="C21">
         <v>0.99997162903490988</v>
       </c>
       <c r="D21">
-        <v>2.2210468131280025e-14</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+        <v>2.2210468131280025E-14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.000109757027966061</v>
+        <v>1.09757027966061E-4</v>
       </c>
       <c r="C22">
         <v>0.99931157104544299</v>
       </c>
       <c r="D22">
-        <v>0.00057867192659081775</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+        <v>5.7867192659081775E-4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.7300155811506689e-05</v>
+        <v>1.7300155811506689E-5</v>
       </c>
       <c r="C23">
         <v>0.99961007440612515</v>
       </c>
       <c r="D23">
-        <v>0.00037262543806330814</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+        <v>3.7262543806330814E-4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.9637275072862074e-12</v>
+        <v>1.9637275072862074E-12</v>
       </c>
       <c r="C24">
         <v>0.99999999999681766</v>
       </c>
       <c r="D24">
-        <v>1.2186011885503135e-12</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+        <v>1.2186011885503135E-12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.00018692482994322993</v>
+        <v>1.8692482994322993E-4</v>
       </c>
       <c r="C25">
         <v>0.99955632769125002</v>
       </c>
       <c r="D25">
-        <v>0.00025674747880677915</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+        <v>2.5674747880677915E-4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.8268372102216839e-05</v>
+        <v>1.8268372102216839E-5</v>
       </c>
       <c r="C26">
         <v>0.9996924507027044</v>
       </c>
       <c r="D26">
-        <v>0.0002892809251933637</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+        <v>2.892809251933637E-4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.0014224466993408679</v>
+        <v>1.4224466993408679E-3</v>
       </c>
       <c r="C27">
         <v>0.99857755330039666</v>
       </c>
       <c r="D27">
-        <v>2.624209966100292e-13</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+        <v>2.624209966100292E-13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7.1927179531740932e-05</v>
+        <v>7.1927179531740932E-5</v>
       </c>
       <c r="C28">
         <v>0.9998116494424899</v>
       </c>
       <c r="D28">
-        <v>0.00011642337797845155</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+        <v>1.1642337797845155E-4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2.3627765739000383e-06</v>
+        <v>2.3627765739000383E-6</v>
       </c>
       <c r="C29">
         <v>0.99999763722340385</v>
       </c>
       <c r="D29">
-        <v>2.2204445387855203e-14</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+        <v>2.2204445387855203E-14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6.9677301189672873e-12</v>
+        <v>6.9677301189672873E-12</v>
       </c>
       <c r="C30">
         <v>0.99999999999301004</v>
       </c>
       <c r="D30">
-        <v>2.2204460492502462e-14</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+        <v>2.2204460492502462E-14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5.5820629642448614e-14</v>
+        <v>5.5820629642448614E-14</v>
       </c>
       <c r="C31">
         <v>0.99999999999992195</v>
       </c>
       <c r="D31">
-        <v>2.220446049250256e-14</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+        <v>2.220446049250256E-14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.00033548085375127875</v>
+        <v>3.3548085375127875E-4</v>
       </c>
       <c r="C32">
         <v>0.9996621625129003</v>
       </c>
       <c r="D32">
-        <v>2.3566333483406841e-06</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+        <v>2.3566333483406841E-6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.3605982557571539e-07</v>
+        <v>1.3605982557571539E-7</v>
       </c>
       <c r="C33">
         <v>0.99999986394015228</v>
       </c>
       <c r="D33">
-        <v>2.2204459567683156e-14</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+        <v>2.2204459567683156E-14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.0191016412269578e-13</v>
+        <v>1.0191016412269578E-13</v>
       </c>
       <c r="C34">
         <v>0.99999999999987588</v>
       </c>
       <c r="D34">
-        <v>2.2204460492502348e-14</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+        <v>2.2204460492502348E-14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>9.0506287243167705e-05</v>
+        <v>9.0506287243167705E-5</v>
       </c>
       <c r="C35">
         <v>0.99990897969249282</v>
       </c>
       <c r="D35">
-        <v>5.1402026404919578e-07</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+        <v>5.1402026404919578E-7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>4.2329851322514875e-12</v>
+        <v>4.2329851322514875E-12</v>
       </c>
       <c r="C36">
         <v>0.99999999999574485</v>
       </c>
       <c r="D36">
-        <v>2.2204460492483311e-14</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+        <v>2.2204460492483311E-14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2.9346760058738397e-07</v>
+        <v>2.9346760058738397E-7</v>
       </c>
       <c r="C37">
         <v>0.99999970653237735</v>
       </c>
       <c r="D37">
-        <v>2.2204458328270839e-14</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+        <v>2.2204458328270839E-14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.9748583507936025e-07</v>
+        <v>1.9748583507936025E-7</v>
       </c>
       <c r="C38">
         <v>0.99999980251414278</v>
       </c>
       <c r="D38">
-        <v>2.220445917200878e-14</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+        <v>2.220445917200878E-14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>9.3432132686619636e-05</v>
+        <v>9.3432132686619636E-5</v>
       </c>
       <c r="C39">
         <v>0.99990587275079468</v>
       </c>
       <c r="D39">
-        <v>6.951165188878158e-07</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+        <v>6.951165188878158E-7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.2142327242708888e-06</v>
+        <v>1.2142327242708888E-6</v>
       </c>
       <c r="C40">
         <v>0.99978778375629018</v>
       </c>
       <c r="D40">
-        <v>0.00021100201098554994</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+        <v>2.1100201098554994E-4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.1595955339834231e-06</v>
+        <v>1.1595955339834231E-6</v>
       </c>
       <c r="C41">
         <v>0.99999884040444387</v>
       </c>
       <c r="D41">
-        <v>2.2204451909872101e-14</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+        <v>2.2204451909872101E-14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8.0541968231227286e-07</v>
+        <v>8.0541968231227286E-7</v>
       </c>
       <c r="C42">
         <v>0.99999919458027897</v>
       </c>
       <c r="D42">
-        <v>3.8549769521730661e-14</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+        <v>3.8549769521730661E-14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.00016609117927914992</v>
+        <v>1.6609117927914992E-4</v>
       </c>
       <c r="C43">
         <v>0.99908309385343697</v>
       </c>
       <c r="D43">
-        <v>0.00075081496728386155</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+        <v>7.5081496728386155E-4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.00017984026124579186</v>
+        <v>1.7984026124579186E-4</v>
       </c>
       <c r="C44">
         <v>0.99982015973873206</v>
       </c>
       <c r="D44">
-        <v>2.2203134826978898e-14</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+        <v>2.2203134826978898E-14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3.9672689088994161e-05</v>
+        <v>3.9672689088994161E-5</v>
       </c>
       <c r="C45">
         <v>0.9999603273108888</v>
       </c>
       <c r="D45">
-        <v>2.2205697554449018e-14</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+        <v>2.2205697554449018E-14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.00019336615982248721</v>
+        <v>1.9336615982248721E-4</v>
       </c>
       <c r="C46">
         <v>0.99980407625901979</v>
       </c>
       <c r="D46">
-        <v>2.5575811577601193e-06</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+        <v>2.5575811577601193E-6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>6.4823003193838856e-05</v>
+        <v>6.4823003193838856E-5</v>
       </c>
       <c r="C47">
         <v>0.99993517567655632</v>
       </c>
       <c r="D47">
-        <v>1.3202498852666434e-09</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+        <v>1.3202498852666434E-9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.00033399747874814675</v>
+        <v>3.3399747874814675E-4</v>
       </c>
       <c r="C48">
         <v>0.99958910350981112</v>
       </c>
       <c r="D48">
-        <v>7.6899011440733354e-05</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+        <v>7.6899011440733354E-5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.00047356671316989898</v>
+        <v>4.7356671316989898E-4</v>
       </c>
       <c r="C49">
         <v>0.99952640721022601</v>
       </c>
       <c r="D49">
-        <v>2.6076604157419652e-08</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+        <v>2.6076604157419652E-8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.2580116470192724e-05</v>
+        <v>2.2580116470192724E-5</v>
       </c>
       <c r="C50">
         <v>0.999977419798599</v>
       </c>
       <c r="D50">
-        <v>8.4930706114203093e-11</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+        <v>8.4930706114203093E-11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6.1872739853984711e-05</v>
+        <v>6.1872739853984711E-5</v>
       </c>
       <c r="C51">
         <v>0.99993812726012377</v>
       </c>
       <c r="D51">
-        <v>2.220892417879413e-14</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+        <v>2.220892417879413E-14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9.8017419357149436e-05</v>
+        <v>9.8017419357149436E-5</v>
       </c>
       <c r="C52">
         <v>0.99990186997268138</v>
       </c>
       <c r="D52">
-        <v>1.1260796165337786e-07</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+        <v>1.1260796165337786E-7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.0170418580829812e-06</v>
+        <v>1.0170418580829812E-6</v>
       </c>
       <c r="C53">
         <v>0.99980150818103242</v>
       </c>
       <c r="D53">
-        <v>0.00019747477710945079</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+        <v>1.9747477710945079E-4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.4484912568889459e-13</v>
+        <v>2.4484912568889459E-13</v>
       </c>
       <c r="C54">
         <v>0.99999999999973299</v>
       </c>
       <c r="D54">
-        <v>2.2204460492501036e-14</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+        <v>2.2204460492501036E-14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5.2473000765926362e-05</v>
+        <v>5.2473000765926362E-5</v>
       </c>
       <c r="C55">
         <v>0.9999251509827789</v>
       </c>
       <c r="D55">
-        <v>2.2376016455198211e-05</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+        <v>2.2376016455198211E-5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.0005242694261722281</v>
+        <v>5.242694261722281E-4</v>
       </c>
       <c r="C56">
         <v>0.99947573056840155</v>
       </c>
       <c r="D56">
-        <v>5.4261892677178281e-12</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+        <v>5.4261892677178281E-12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>4.9622542426337887e-07</v>
+        <v>4.9622542426337887E-7</v>
       </c>
       <c r="C57">
         <v>0.99999950377455338</v>
       </c>
       <c r="D57">
-        <v>2.2204456824241741e-14</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+        <v>2.2204456824241741E-14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3.3809965560962325e-09</v>
+        <v>3.3809965560962325E-9</v>
       </c>
       <c r="C58">
         <v>0.99999999661898131</v>
       </c>
       <c r="D58">
-        <v>2.2204460486875949e-14</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+        <v>2.2204460486875949E-14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2.58282404281757e-06</v>
+        <v>2.58282404281757E-6</v>
       </c>
       <c r="C59">
         <v>0.99999741717593493</v>
       </c>
       <c r="D59">
-        <v>2.2204443012386708e-14</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+        <v>2.2204443012386708E-14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.2378801943234894e-08</v>
+        <v>1.2378801943234894E-8</v>
       </c>
       <c r="C60">
         <v>0.99999998762117581</v>
       </c>
       <c r="D60">
-        <v>2.2204460528753912e-14</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+        <v>2.2204460528753912E-14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.5290765268406312e-10</v>
+        <v>1.5290765268406312E-10</v>
       </c>
       <c r="C61">
         <v>0.99999999984707022</v>
       </c>
       <c r="D61">
-        <v>2.2204460491934791e-14</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+        <v>2.2204460491934791E-14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.00032691480336250416</v>
+        <v>3.2691480336250416E-4</v>
       </c>
       <c r="C62">
         <v>0.99967308519661535</v>
       </c>
       <c r="D62">
-        <v>2.2202057805551446e-14</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+        <v>2.2202057805551446E-14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>6.7133502944333406e-05</v>
+        <v>6.7133502944333406E-5</v>
       </c>
       <c r="C63">
         <v>0.99993234464231606</v>
       </c>
       <c r="D63">
-        <v>5.2185473955783162e-07</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+        <v>5.2185473955783162E-7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2488,27 +3230,34 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>9.1924413251210361e-05</v>
+        <v>9.1924413251210361E-5</v>
       </c>
       <c r="C65">
         <v>0.99981514379285508</v>
       </c>
       <c r="D65">
-        <v>9.2931793893716088e-05</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
+        <v>9.2931793893716088E-5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>